--- a/diplom/март/yс/models_results_optimized_ус.xlsx
+++ b/diplom/март/yс/models_results_optimized_ус.xlsx
@@ -531,7 +531,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>24.04550677364942</v>
+        <v>24.04550677364943</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>24.22778375528583</v>
+        <v>24.22778375528584</v>
       </c>
     </row>
     <row r="14">
@@ -571,7 +571,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>18.87482250473808</v>
+        <v>18.87482250473807</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.667193651902931</v>
+        <v>2.66719365190293</v>
       </c>
     </row>
   </sheetData>

--- a/diplom/март/yс/models_results_optimized_ус.xlsx
+++ b/diplom/март/yс/models_results_optimized_ус.xlsx
@@ -451,7 +451,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="n">
-        <v>23.7287903607621</v>
+        <v>22.85556621150353</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>23.56477719903275</v>
+        <v>23.04910907671453</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>23.76639606137703</v>
+        <v>24.55734486197832</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>23.26903389305454</v>
+        <v>21.5621210302065</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>23.93755607055613</v>
+        <v>22.36868107942155</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>24.25096917590264</v>
+        <v>25.82467100162167</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>24.10221775533802</v>
+        <v>24.61178799460662</v>
       </c>
     </row>
     <row r="9">
@@ -507,7 +507,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>24.04465464225217</v>
+        <v>25.23569628339146</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>23.88110432793267</v>
+        <v>23.70498454709345</v>
       </c>
     </row>
     <row r="11">
@@ -523,7 +523,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>21.97278822251429</v>
+        <v>22.40050876265497</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>24.04550677364943</v>
+        <v>25.05691426643106</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>24.22778375528584</v>
+        <v>23.88086774852074</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>22.19278882852417</v>
+        <v>20.84191646388721</v>
       </c>
     </row>
     <row r="15">
@@ -555,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>22.76492271091578</v>
+        <v>22.02135497661103</v>
       </c>
     </row>
     <row r="16">
@@ -563,7 +563,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>23.35175592134739</v>
+        <v>23.5322509629144</v>
       </c>
     </row>
     <row r="17">
@@ -571,7 +571,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>18.87482250473807</v>
+        <v>19.92411928293477</v>
       </c>
     </row>
     <row r="18">
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>22.66077416370977</v>
+        <v>22.48796427661058</v>
       </c>
     </row>
     <row r="19">
@@ -587,7 +587,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>23.41108809861134</v>
+        <v>25.11855054741282</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.508637899262281</v>
+        <v>8.128944052439655</v>
       </c>
     </row>
     <row r="3">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.66719365190293</v>
+        <v>2.35422302767707</v>
       </c>
     </row>
   </sheetData>
